--- a/lista_abeta_indefinido.xlsx
+++ b/lista_abeta_indefinido.xlsx
@@ -1012,34 +1012,34 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>rayyan-115922499</t>
+          <t>rayyan-115922013</t>
         </is>
       </c>
       <c r="B3">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10.1021/acsomega.8b00841</t>
+          <t>10.1007/s10822-020-00318-w</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sonali S. Bharate</t>
+          <t>Manish Kumar Tripathi</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Preclinical Development of Crocus sativus-Based Botanical Lead IIIM-141 for Alzheimer’s Disease: Chemical Standardization, Efficacy, Formulation Development, Pharmacokinetics, and Safety Pharmacology</t>
+          <t>Computational exploration and experimental validation to identify a dual inhibitor of cholinesterase and amyloid-beta for the treatment of Alzheimer's disease.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ACS Omega</t>
+          <t>Journal of Computer-Aided Molecular Design</t>
         </is>
       </c>
       <c r="G3">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not informed</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -1063,12 +1063,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Nathalia Pinheiro</t>
+          <t>Samantha Martins</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2E</t>
+          <t>Fig. 15</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -1078,35 +1078,35 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>Control</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>betaA, 10ug/mL</t>
+          <t>Abeta</t>
         </is>
       </c>
       <c r="Q3">
-        <v>99.55</v>
+        <v>99.29000000000001</v>
       </c>
       <c r="S3">
-        <v>7.778</v>
+        <v>2.827</v>
       </c>
       <c r="U3">
         <v>3</v>
       </c>
       <c r="V3">
-        <v>75.44</v>
+        <v>58.66</v>
       </c>
       <c r="X3">
-        <v>4.667</v>
+        <v>2.827</v>
       </c>
       <c r="Z3">
         <v>3</v>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>SEM</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Fig 2 legend. 3 independent experiments, and for each experiment, six wells were used for every treatment.</t>
+          <t>Each bar displays the values of % cell viability as the mean±SEM of three separate experiments (n=3)</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>Vehicle</t>
+          <t>Unclear</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1168,19 +1168,19 @@
         <v>24</v>
       </c>
       <c r="AQ3">
-        <v>2.2</v>
+        <v>20</v>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>Not informed</t>
         </is>
       </c>
       <c r="AS3">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>cells/well</t>
+          <t>cells/wells</t>
         </is>
       </c>
       <c r="AV3">
@@ -1190,115 +1190,85 @@
         <v>0.32</v>
       </c>
       <c r="AX3">
-        <v>31250</v>
+        <v>312500</v>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>MEM/F12</t>
-        </is>
-      </c>
-      <c r="AZ3" t="inlineStr">
-        <is>
-          <t>MEM_F12</t>
+          <t>Not informed</t>
+        </is>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>Not informed</t>
+        </is>
+      </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>no</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>NO SERUM</t>
+          <t>Unclear</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>ATRA</t>
-        </is>
-      </c>
-      <c r="BG3">
-        <v>7</v>
-      </c>
-      <c r="BH3" t="inlineStr">
-        <is>
-          <t>MEM_F12</t>
-        </is>
-      </c>
-      <c r="BI3" t="inlineStr">
-        <is>
-          <t>Unclear</t>
-        </is>
-      </c>
-      <c r="BJ3" t="inlineStr">
-        <is>
-          <t>Unclear</t>
-        </is>
-      </c>
-      <c r="BK3">
-        <v>10</v>
-      </c>
-      <c r="BM3" t="inlineStr">
-        <is>
-          <t>Unclear</t>
-        </is>
-      </c>
-      <c r="BN3" t="inlineStr">
-        <is>
-          <t>Unclear</t>
-        </is>
-      </c>
-      <c r="BO3" t="inlineStr">
-        <is>
-          <t>Briefly, 10000 SH-SY5Y cells (passage no. 13) were cultured in MEM/F12 media into each well of a 96-well plate. Cells were further differentiated with 10 μM retinoic acid for 1 week.</t>
+          <t>No differentiation</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>The Abeta peptide sequence is not informed in the paper. The concentration of Abeta used was estimated by the reviewer, considering the concentration informed on the figure (10ug/mL) and the molar mass of Abeta peptide as 4.5kDa (=4500g/mol). The cell suspension volume plated was not informed in the paper.</t>
+          <t>Abeta aggregation: maybe monomers... The stock solution of Aβ (2000 µM) was prepared by _x000D_
+dissolving the protein in ammonium hydroxide (pH≥9.0).</t>
         </is>
       </c>
       <c r="BQ3">
-        <v>99.55</v>
+        <v>99.29000000000001</v>
       </c>
       <c r="BR3">
-        <v>75.44</v>
+        <v>58.66</v>
       </c>
       <c r="BS3">
-        <v>7.778</v>
+        <v>2.827</v>
       </c>
       <c r="BT3">
-        <v>4.667</v>
+        <v>2.827</v>
       </c>
       <c r="BU3">
-        <v>7.778</v>
+        <v>4.896507632997216</v>
       </c>
       <c r="BV3">
-        <v>4.667</v>
+        <v>4.896507632997216</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>rayyan-115922013</t>
+          <t>rayyan-115922234</t>
         </is>
       </c>
       <c r="B4">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10.1007/s10822-020-00318-w</t>
+          <t>10.1159/000505592</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Manish Kumar Tripathi</t>
+          <t>Suyun Choi</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Computational exploration and experimental validation to identify a dual inhibitor of cholinesterase and amyloid-beta for the treatment of Alzheimer's disease.</t>
+          <t>Korean Red Ginseng Inhibits Amyloid-Î²-Induced Apoptosis and Nucling Expression in Human Neuronal Cells.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Journal of Computer-Aided Molecular Design</t>
+          <t>Pharmacology</t>
         </is>
       </c>
       <c r="G4">
@@ -1316,7 +1286,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Not informed</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1326,46 +1296,46 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Samantha Martins</t>
+          <t>Adriano Sebollela</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Fig. 15</t>
+          <t>Figure 1A</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>% cell viability</t>
+          <t>Cell viability, % of None</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Control</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Abeta</t>
+          <t>Aβ μmol/L</t>
         </is>
       </c>
       <c r="Q4">
-        <v>99.29000000000001</v>
+        <v>100</v>
       </c>
       <c r="S4">
-        <v>2.827</v>
+        <v>4.984</v>
       </c>
       <c r="U4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V4">
-        <v>58.66</v>
+        <v>68.61</v>
       </c>
       <c r="X4">
-        <v>2.827</v>
+        <v>3.518</v>
       </c>
       <c r="Z4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
@@ -1377,9 +1347,10 @@
           <t>independent experiments</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Each bar displays the values of % cell viability as the mean±SEM of three separate experiments (n=3)</t>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">treatment with 2uM Abeta_x000D_
+</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1389,7 +1360,12 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>Unclear</t>
+          <t>Cell bank</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>American Type Culture Collection (ATCC)</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1404,7 +1380,7 @@
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>Unclear</t>
+          <t>Medium only</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1419,7 +1395,7 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>Unclear</t>
+          <t>Fibers</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
@@ -1431,11 +1407,11 @@
         <v>24</v>
       </c>
       <c r="AQ4">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>Not informed</t>
+          <t>not mentioned</t>
         </is>
       </c>
       <c r="AS4">
@@ -1443,7 +1419,7 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>cells/wells</t>
+          <t>cells/mL</t>
         </is>
       </c>
       <c r="AV4">
@@ -1452,17 +1428,24 @@
       <c r="AW4">
         <v>0.32</v>
       </c>
-      <c r="AX4">
-        <v>312500</v>
-      </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>Not informed</t>
+          <t>Minimum Essential Medium (MEM) with Earle’s Balanced Salts</t>
+        </is>
+      </c>
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t>MEM</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>Not informed</t>
+          <t>100U/mL penicilin; 100 μg/mL streptomycin</t>
+        </is>
+      </c>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
       <c r="BC4" t="inlineStr">
@@ -1472,7 +1455,12 @@
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>Unclear</t>
+          <t>FBS</t>
+        </is>
+      </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>0.1</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
@@ -1480,29 +1468,23 @@
           <t>No differentiation</t>
         </is>
       </c>
-      <c r="BP4" t="inlineStr">
-        <is>
-          <t>Abeta aggregation: maybe monomers... The stock solution of Aβ (2000 µM) was prepared by _x000D_
-dissolving the protein in ammonium hydroxide (pH≥9.0).</t>
-        </is>
-      </c>
       <c r="BQ4">
-        <v>99.29000000000001</v>
+        <v>100</v>
       </c>
       <c r="BR4">
-        <v>58.66</v>
+        <v>68.61</v>
       </c>
       <c r="BS4">
-        <v>2.827</v>
+        <v>4.984</v>
       </c>
       <c r="BT4">
-        <v>2.827</v>
+        <v>3.518</v>
       </c>
       <c r="BU4">
-        <v>4.896507632997216</v>
+        <v>9.968</v>
       </c>
       <c r="BV4">
-        <v>4.896507632997216</v>
+        <v>7.036</v>
       </c>
     </row>
     <row r="5">
@@ -1512,7 +1494,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1564,7 +1546,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Figure 1B</t>
+          <t>Figure 1A</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1579,23 +1561,23 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>control (Aβ 5 μmol/L)</t>
+          <t>Aβ μmol/L</t>
         </is>
       </c>
       <c r="Q5">
         <v>100</v>
       </c>
       <c r="S5">
-        <v>5.155</v>
+        <v>4.984</v>
       </c>
       <c r="U5">
         <v>4</v>
       </c>
       <c r="V5">
-        <v>53.53</v>
+        <v>54.83</v>
       </c>
       <c r="X5">
-        <v>2.753</v>
+        <v>3.812</v>
       </c>
       <c r="Z5">
         <v>4</v>
@@ -1610,6 +1592,11 @@
           <t>independent experiments</t>
         </is>
       </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>treatment with 5uM Abeta</t>
+        </is>
+      </c>
       <c r="AE5" t="inlineStr">
         <is>
           <t>MTT</t>
@@ -1729,19 +1716,19 @@
         <v>100</v>
       </c>
       <c r="BR5">
-        <v>53.53</v>
+        <v>54.83</v>
       </c>
       <c r="BS5">
-        <v>5.155</v>
+        <v>4.984</v>
       </c>
       <c r="BT5">
-        <v>2.753</v>
+        <v>3.812</v>
       </c>
       <c r="BU5">
-        <v>10.31</v>
+        <v>9.968</v>
       </c>
       <c r="BV5">
-        <v>5.506</v>
+        <v>7.624</v>
       </c>
     </row>
     <row r="6">
@@ -1751,7 +1738,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1803,7 +1790,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Figure 1A</t>
+          <t>Figure 1B</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1818,23 +1805,23 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Aβ μmol/L</t>
+          <t>control (Aβ 5 μmol/L)</t>
         </is>
       </c>
       <c r="Q6">
         <v>100</v>
       </c>
       <c r="S6">
-        <v>4.984</v>
+        <v>5.155</v>
       </c>
       <c r="U6">
         <v>4</v>
       </c>
       <c r="V6">
-        <v>54.83</v>
+        <v>53.53</v>
       </c>
       <c r="X6">
-        <v>3.812</v>
+        <v>2.753</v>
       </c>
       <c r="Z6">
         <v>4</v>
@@ -1849,11 +1836,6 @@
           <t>independent experiments</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>treatment with 5uM Abeta</t>
-        </is>
-      </c>
       <c r="AE6" t="inlineStr">
         <is>
           <t>MTT</t>
@@ -1973,52 +1955,52 @@
         <v>100</v>
       </c>
       <c r="BR6">
-        <v>54.83</v>
+        <v>53.53</v>
       </c>
       <c r="BS6">
-        <v>4.984</v>
+        <v>5.155</v>
       </c>
       <c r="BT6">
-        <v>3.812</v>
+        <v>2.753</v>
       </c>
       <c r="BU6">
-        <v>9.968</v>
+        <v>10.31</v>
       </c>
       <c r="BV6">
-        <v>7.624</v>
+        <v>5.506</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>rayyan-115922234</t>
+          <t>rayyan-115922499</t>
         </is>
       </c>
       <c r="B7">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10.1159/000505592</t>
+          <t>10.1021/acsomega.8b00841</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Suyun Choi</t>
+          <t>Sonali S. Bharate</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Korean Red Ginseng Inhibits Amyloid-Î²-Induced Apoptosis and Nucling Expression in Human Neuronal Cells.</t>
+          <t>Preclinical Development of Crocus sativus-Based Botanical Lead IIIM-141 for Alzheimer’s Disease: Chemical Standardization, Efficacy, Formulation Development, Pharmacokinetics, and Safety Pharmacology</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Pharmacology</t>
+          <t>ACS Omega</t>
         </is>
       </c>
       <c r="G7">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -2042,50 +2024,50 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Adriano Sebollela</t>
+          <t>Nathalia Pinheiro</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Figure 1A</t>
+          <t>2E</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Cell viability, % of None</t>
+          <t>% cell viability</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>control</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Aβ μmol/L</t>
+          <t>betaA, 10ug/mL</t>
         </is>
       </c>
       <c r="Q7">
-        <v>100</v>
+        <v>99.55</v>
       </c>
       <c r="S7">
-        <v>4.984</v>
+        <v>7.778</v>
       </c>
       <c r="U7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V7">
-        <v>68.61</v>
+        <v>75.44</v>
       </c>
       <c r="X7">
-        <v>3.518</v>
+        <v>4.667</v>
       </c>
       <c r="Z7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>SEM</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -2093,10 +2075,9 @@
           <t>independent experiments</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">treatment with 2uM Abeta_x000D_
-</t>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Fig 2 legend. 3 independent experiments, and for each experiment, six wells were used for every treatment.</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
@@ -2106,12 +2087,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>Cell bank</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>American Type Culture Collection (ATCC)</t>
+          <t>Unclear</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -2126,7 +2102,7 @@
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>Medium only</t>
+          <t>Vehicle</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2141,7 +2117,7 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>Fibers</t>
+          <t>Unclear</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
@@ -2153,19 +2129,19 @@
         <v>24</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>not mentioned</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AS7">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>cells/mL</t>
+          <t>cells/well</t>
         </is>
       </c>
       <c r="AV7">
@@ -2174,96 +2150,120 @@
       <c r="AW7">
         <v>0.32</v>
       </c>
+      <c r="AX7">
+        <v>31250</v>
+      </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>Minimum Essential Medium (MEM) with Earle’s Balanced Salts</t>
+          <t>MEM/F12</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="BA7" t="inlineStr">
-        <is>
-          <t>100U/mL penicilin; 100 μg/mL streptomycin</t>
-        </is>
-      </c>
-      <c r="BB7" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="BC7" t="inlineStr">
-        <is>
-          <t>no</t>
+          <t>MEM_F12</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>FBS</t>
-        </is>
-      </c>
-      <c r="BE7" t="inlineStr">
-        <is>
-          <t>0.1</t>
+          <t>NO SERUM</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>No differentiation</t>
+          <t>ATRA</t>
+        </is>
+      </c>
+      <c r="BG7">
+        <v>7</v>
+      </c>
+      <c r="BH7" t="inlineStr">
+        <is>
+          <t>MEM_F12</t>
+        </is>
+      </c>
+      <c r="BI7" t="inlineStr">
+        <is>
+          <t>Unclear</t>
+        </is>
+      </c>
+      <c r="BJ7" t="inlineStr">
+        <is>
+          <t>Unclear</t>
+        </is>
+      </c>
+      <c r="BK7">
+        <v>10</v>
+      </c>
+      <c r="BM7" t="inlineStr">
+        <is>
+          <t>Unclear</t>
+        </is>
+      </c>
+      <c r="BN7" t="inlineStr">
+        <is>
+          <t>Unclear</t>
+        </is>
+      </c>
+      <c r="BO7" t="inlineStr">
+        <is>
+          <t>Briefly, 10000 SH-SY5Y cells (passage no. 13) were cultured in MEM/F12 media into each well of a 96-well plate. Cells were further differentiated with 10 μM retinoic acid for 1 week.</t>
+        </is>
+      </c>
+      <c r="BP7" t="inlineStr">
+        <is>
+          <t>The Abeta peptide sequence is not informed in the paper. The concentration of Abeta used was estimated by the reviewer, considering the concentration informed on the figure (10ug/mL) and the molar mass of Abeta peptide as 4.5kDa (=4500g/mol). The cell suspension volume plated was not informed in the paper.</t>
         </is>
       </c>
       <c r="BQ7">
-        <v>100</v>
+        <v>99.55</v>
       </c>
       <c r="BR7">
-        <v>68.61</v>
+        <v>75.44</v>
       </c>
       <c r="BS7">
-        <v>4.984</v>
+        <v>7.778</v>
       </c>
       <c r="BT7">
-        <v>3.518</v>
+        <v>4.667</v>
       </c>
       <c r="BU7">
-        <v>9.968</v>
+        <v>7.778</v>
       </c>
       <c r="BV7">
-        <v>7.036</v>
+        <v>4.667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>rayyan-115922234</t>
+          <t>rayyan-115922456</t>
         </is>
       </c>
       <c r="B8">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10.1159/000505592</t>
+          <t>10.1016/j.ejmech.2019.111707</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Suyun Choi</t>
+          <t>Avanish Tripathi</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Korean Red Ginseng Inhibits Amyloid-Î²-Induced Apoptosis and Nucling Expression in Human Neuronal Cells.</t>
+          <t>Design and development of molecular hybrids of 2-pyridylpiperazine and 5-phenyl-1,3,4-oxadiazoles as potential multifunctional agents to treat Alzheimer's disease</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Pharmacology</t>
+          <t>European journal of medicinal chemistry</t>
         </is>
       </c>
       <c r="G8">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not informed</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2287,46 +2287,46 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Adriano Sebollela</t>
+          <t>Samantha Martins</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Figure 1A</t>
+          <t>Fig. 4.</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Cell viability, % of None</t>
+          <t>% Cell viability</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Control</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Aβ μmol/L</t>
+          <t>Aß</t>
         </is>
       </c>
       <c r="Q8">
         <v>100</v>
       </c>
       <c r="S8">
-        <v>4.984</v>
+        <v>1.843</v>
       </c>
       <c r="U8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V8">
-        <v>81.20999999999999</v>
+        <v>60.35</v>
       </c>
       <c r="X8">
-        <v>3.812</v>
+        <v>3.675</v>
       </c>
       <c r="Z8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
@@ -2338,9 +2338,10 @@
           <t>independent experiments</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>treatment with 1uM Abeta</t>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Each bar displays the values of % cell viability_x000D_
+as the mean ± SEM of three separate experiments (n = 3).</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
@@ -2350,12 +2351,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>Cell bank</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>American Type Culture Collection (ATCC)</t>
+          <t>Unclear</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -2370,7 +2366,7 @@
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>Medium only</t>
+          <t>Unclear</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2385,7 +2381,7 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>Fibers</t>
+          <t>Unclear</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
@@ -2397,11 +2393,11 @@
         <v>24</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>not mentioned</t>
+          <t>Not informed</t>
         </is>
       </c>
       <c r="AS8">
@@ -2409,7 +2405,7 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>cells/mL</t>
+          <t>cells/wells</t>
         </is>
       </c>
       <c r="AV8">
@@ -2418,24 +2414,17 @@
       <c r="AW8">
         <v>0.32</v>
       </c>
+      <c r="AX8">
+        <v>312500</v>
+      </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>Minimum Essential Medium (MEM) with Earle’s Balanced Salts</t>
-        </is>
-      </c>
-      <c r="AZ8" t="inlineStr">
-        <is>
-          <t>MEM</t>
+          <t>Not informed</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>100U/mL penicilin; 100 μg/mL streptomycin</t>
-        </is>
-      </c>
-      <c r="BB8" t="inlineStr">
-        <is>
-          <t>yes</t>
+          <t>Not informed</t>
         </is>
       </c>
       <c r="BC8" t="inlineStr">
@@ -2445,69 +2434,69 @@
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>FBS</t>
-        </is>
-      </c>
-      <c r="BE8" t="inlineStr">
-        <is>
-          <t>0.1</t>
+          <t>Unclear</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
           <t>No differentiation</t>
+        </is>
+      </c>
+      <c r="BP8" t="inlineStr">
+        <is>
+          <t>Neuroprotection activity of compounds 48 and 49 were assessed by MTT assay on neuroblastoma SHSY-5Y cell lines. Protocol of study was according to literature with slight modification [33]</t>
         </is>
       </c>
       <c r="BQ8">
         <v>100</v>
       </c>
       <c r="BR8">
-        <v>81.20999999999999</v>
+        <v>60.35</v>
       </c>
       <c r="BS8">
-        <v>4.984</v>
+        <v>1.843</v>
       </c>
       <c r="BT8">
-        <v>3.812</v>
+        <v>3.675</v>
       </c>
       <c r="BU8">
-        <v>9.968</v>
+        <v>3.192169638349441</v>
       </c>
       <c r="BV8">
-        <v>7.624</v>
+        <v>6.365286717815623</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>rayyan-115922456</t>
+          <t>rayyan-115922234</t>
         </is>
       </c>
       <c r="B9">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10.1016/j.ejmech.2019.111707</t>
+          <t>10.1159/000505592</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Avanish Tripathi</t>
+          <t>Suyun Choi</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Design and development of molecular hybrids of 2-pyridylpiperazine and 5-phenyl-1,3,4-oxadiazoles as potential multifunctional agents to treat Alzheimer's disease</t>
+          <t>Korean Red Ginseng Inhibits Amyloid-Î²-Induced Apoptosis and Nucling Expression in Human Neuronal Cells.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>European journal of medicinal chemistry</t>
+          <t>Pharmacology</t>
         </is>
       </c>
       <c r="G9">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -2521,7 +2510,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Not informed</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2531,46 +2520,46 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Samantha Martins</t>
+          <t>Adriano Sebollela</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Fig. 4.</t>
+          <t>Figure 1A</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>% Cell viability</t>
+          <t>Cell viability, % of None</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Control</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Aß</t>
+          <t>Aβ μmol/L</t>
         </is>
       </c>
       <c r="Q9">
         <v>100</v>
       </c>
       <c r="S9">
-        <v>1.843</v>
+        <v>4.984</v>
       </c>
       <c r="U9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V9">
-        <v>60.35</v>
+        <v>81.20999999999999</v>
       </c>
       <c r="X9">
-        <v>3.675</v>
+        <v>3.812</v>
       </c>
       <c r="Z9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
@@ -2582,10 +2571,9 @@
           <t>independent experiments</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Each bar displays the values of % cell viability_x000D_
-as the mean ± SEM of three separate experiments (n = 3).</t>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>treatment with 1uM Abeta</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
@@ -2595,7 +2583,12 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>Unclear</t>
+          <t>Cell bank</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>American Type Culture Collection (ATCC)</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -2610,7 +2603,7 @@
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>Unclear</t>
+          <t>Medium only</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2625,7 +2618,7 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>Unclear</t>
+          <t>Fibers</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
@@ -2637,11 +2630,11 @@
         <v>24</v>
       </c>
       <c r="AQ9">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>Not informed</t>
+          <t>not mentioned</t>
         </is>
       </c>
       <c r="AS9">
@@ -2649,7 +2642,7 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>cells/wells</t>
+          <t>cells/mL</t>
         </is>
       </c>
       <c r="AV9">
@@ -2658,17 +2651,24 @@
       <c r="AW9">
         <v>0.32</v>
       </c>
-      <c r="AX9">
-        <v>312500</v>
-      </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>Not informed</t>
+          <t>Minimum Essential Medium (MEM) with Earle’s Balanced Salts</t>
+        </is>
+      </c>
+      <c r="AZ9" t="inlineStr">
+        <is>
+          <t>MEM</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>Not informed</t>
+          <t>100U/mL penicilin; 100 μg/mL streptomycin</t>
+        </is>
+      </c>
+      <c r="BB9" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
       <c r="BC9" t="inlineStr">
@@ -2678,36 +2678,36 @@
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>Unclear</t>
+          <t>FBS</t>
+        </is>
+      </c>
+      <c r="BE9" t="inlineStr">
+        <is>
+          <t>0.1</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
           <t>No differentiation</t>
-        </is>
-      </c>
-      <c r="BP9" t="inlineStr">
-        <is>
-          <t>Neuroprotection activity of compounds 48 and 49 were assessed by MTT assay on neuroblastoma SHSY-5Y cell lines. Protocol of study was according to literature with slight modification [33]</t>
         </is>
       </c>
       <c r="BQ9">
         <v>100</v>
       </c>
       <c r="BR9">
-        <v>60.35</v>
+        <v>81.20999999999999</v>
       </c>
       <c r="BS9">
-        <v>1.843</v>
+        <v>4.984</v>
       </c>
       <c r="BT9">
-        <v>3.675</v>
+        <v>3.812</v>
       </c>
       <c r="BU9">
-        <v>3.192169638349441</v>
+        <v>9.968</v>
       </c>
       <c r="BV9">
-        <v>6.365286717815623</v>
+        <v>7.624</v>
       </c>
     </row>
   </sheetData>
